--- a/Test related files/TestCases_EditContact.xlsx
+++ b/Test related files/TestCases_EditContact.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03BC1376-C01C-43FD-8235-BBFC2E0B2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FCA8DD-73F2-454A-983A-CEA932A8FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -66,7 +66,13 @@
     <t>1. Open the Phonebook Application</t>
   </si>
   <si>
-    <t>1+ contacts in the data base</t>
+    <t>1+ contacts in the database</t>
+  </si>
+  <si>
+    <t>The “Edit” button in the Main Window should be disabled when no contact is selected</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>EW-002</t>
@@ -77,6 +83,9 @@
   <si>
     <t>1. Open the Phonebook Application
 2. Select the first contact in the data list</t>
+  </si>
+  <si>
+    <t>The “Edit” button should become enabled when a contact is selected in the Main Window</t>
   </si>
   <si>
     <t>EW-003</t>
@@ -90,16 +99,25 @@
 3. Press the "Edit" button</t>
   </si>
   <si>
+    <t>Pressing the “Edit” button with a selected contact in the Main Window should open the “Edit Contact” Window with selected contact information</t>
+  </si>
+  <si>
     <t>EW-004</t>
   </si>
   <si>
     <t>The “Edit Contact” Window appears on top of the Main Window</t>
   </si>
   <si>
+    <t>The “Edit Contact” Window should appear on top of the Main Window</t>
+  </si>
+  <si>
     <t>EW-005</t>
   </si>
   <si>
     <t>Labels and input fields in the “Edit Contact” window are aligned</t>
+  </si>
+  <si>
+    <t>Labels and input fields in the “Edit Contact” should be window are aligned</t>
   </si>
   <si>
     <t>EW-006</t>
@@ -125,6 +143,24 @@
 4. Resize the "Edit Contact" window by dragging its corner</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Objects in the “Edit Contact” window should resize when resizing the window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WordVisiCarriageReturn_MSFontSe"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
     <t>EW-007</t>
   </si>
   <si>
@@ -135,6 +171,9 @@
 2. Select the first contact in the data list
 3. Press the "Edit" button
 4. Press the "Cancel" button in the "Edit Contact" window</t>
+  </si>
+  <si>
+    <t>Pressing the “Cancel” button in the “Edit Contact” window should close the “Edit Contact” window without editing the selected contact</t>
   </si>
   <si>
     <t>EW-008</t>
@@ -148,6 +187,9 @@
 3. Press the "Edit" button
 4. Clear the Name and Phone No. input fields
 5. Press the "Edit" button</t>
+  </si>
+  <si>
+    <t>Pressing the “Edit” button in the “Edit Contact” window with an empty Full Name or Phone No. Input fields should give a message informing that the fields must not be empty</t>
   </si>
   <si>
     <t>EW-009</t>
@@ -181,6 +223,24 @@
     <t>Phone No.: abcd</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Pressing the “Edit” button in the “EditContact” window with Phone No. Input field containing non-numerical symbols, ‘-’, or ‘+’ symbols should give a message informing that the input format is incorrect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="WordVisiCarriageReturn_MSFontSe"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
     <t>EW-010</t>
   </si>
   <si>
@@ -192,11 +252,16 @@
 3. Press the "Edit" button
 4. Replace the Name input field with the provided data
 5. Replace the Phone No. input field with the provided data
-6. Press the "Edit" button</t>
+6. Replace the Birth Date input field with the provided data
+7. Press the "Edit" button</t>
   </si>
   <si>
     <t>Name: Bob Johnson
-Phone No. +370123456</t>
+Phone No. +370123456
+Birth Date: 2022-01-03</t>
+  </si>
+  <si>
+    <t>Pressing the “Edit” button in the “Edit Contact” window with correctly filled inputs should edit the selected contact in the list</t>
   </si>
 </sst>
 </file>
@@ -262,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -282,6 +347,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -338,6 +414,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -366,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,51 +461,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,7 +1136,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1073,193 +1157,253 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="140.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="140.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="140.25" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>22</v>
+      <c r="A7" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="140.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="140.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="192" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="11" spans="1:8" ht="231.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H11">
